--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5EDAF1-C7A5-D449-BE15-E3047C6099BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFACB74-5732-534B-B5BF-6857F5159E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -40,77 +40,37 @@
     <t>水</t>
   </si>
   <si>
-    <t>講義</t>
-  </si>
-  <si>
     <t>金</t>
   </si>
   <si>
-    <t>研究室ミーティング</t>
-  </si>
-  <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ゲツ </t>
+    <t>科学　太郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カガク </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">タロウ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>統計力学</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">トウケイリキガク </t>
+    <t>東北　子</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">トウホク </t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t xml:space="preserve">コ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>田中</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">タナカ </t>
+    <t>量子力学</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">リョウシリキガク </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>尾崎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>優太</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>尾崎優太</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>尾崎 優太</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">オザキユウタ </t>
-    </rPh>
+    <t>プログラミング1</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -118,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -153,14 +113,6 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -182,13 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -410,9 +361,7 @@
   </sheetPr>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -435,7 +384,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -446,16 +395,16 @@
       <c r="D2" s="2">
         <v>0.61805555555555558</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
+      <c r="A3" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>0.6875</v>
@@ -463,40 +412,22 @@
       <c r="D3" s="2">
         <v>0.75</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.52083333333333337</v>
-      </c>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8144AE77-9BB5-E14A-AE00-85B5F09558B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1E8228-7058-5D4F-A5D1-619F35BE280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="毎週の予定" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>水</t>
   </si>
@@ -203,6 +203,10 @@
     <rPh sb="2" eb="4">
       <t xml:space="preserve">ユウタ </t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -518,7 +522,7 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -705,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1553C-17B3-6D4B-A203-F13CD60B7963}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -747,6 +751,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45691</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1E8228-7058-5D4F-A5D1-619F35BE280D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA863DA-B8B5-6647-8715-26047A06556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="毎週の予定" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
   <si>
     <t>水</t>
   </si>
@@ -207,6 +207,13 @@
   </si>
   <si>
     <t>テスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>力学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">リキガク </t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -522,8 +529,8 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -611,8 +618,8 @@
       <c r="E3" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="F3" s="4">
-        <v>1</v>
+      <c r="F3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="G3" s="5">
         <v>45383</v>
@@ -711,7 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE1553C-17B3-6D4B-A203-F13CD60B7963}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA863DA-B8B5-6647-8715-26047A06556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1DE8C7-6599-2241-9DDC-25C7CB5BEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,20 @@
     <sheet name="毎週の予定" sheetId="1" r:id="rId1"/>
     <sheet name="不定期の予定" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -189,13 +202,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>月</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">ゲツ </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>尾崎優太</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">オザキ </t>
@@ -213,6 +219,13 @@
     <t>力学</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">リキガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -530,7 +543,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -604,10 +617,10 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>3</v>
@@ -616,16 +629,16 @@
         <v>0.375</v>
       </c>
       <c r="E3" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5">
-        <v>45383</v>
+        <v>45748</v>
       </c>
       <c r="H3" s="5">
-        <v>45412</v>
+        <v>45807</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>13</v>
@@ -644,6 +657,8 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
@@ -760,7 +775,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>45691</v>
@@ -772,7 +787,7 @@
         <v>0.4375</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1DE8C7-6599-2241-9DDC-25C7CB5BEDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF79CF84-9F62-CF4D-ACF7-0C2A2163217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,10 +635,10 @@
         <v>22</v>
       </c>
       <c r="G3" s="5">
-        <v>45748</v>
+        <v>45383</v>
       </c>
       <c r="H3" s="5">
-        <v>45807</v>
+        <v>45442</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>13</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF79CF84-9F62-CF4D-ACF7-0C2A2163217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CAE7C-978C-F148-B2B6-6D8B8E07FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32720" yWindow="2640" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="毎週の予定" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>水</t>
   </si>
@@ -216,16 +216,135 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>力学</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">リキガク </t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>火</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">カ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒崎真太郎</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">クロサキ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">シン </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">タロウ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ゲツ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時限</t>
+    </r>
+  </si>
+  <si>
+    <t>3,4時限</t>
+  </si>
+  <si>
+    <r>
+      <t>5,6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時限</t>
+    </r>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">モク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">キン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分光学</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ブンコウガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文学</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ブンガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セラミックス実験</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ジッケン </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スペイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気化学</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">デンキカガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>結晶化学</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ケッショウカガク </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>講義</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">コウギ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黎安琪</t>
+  </si>
+  <si>
+    <t>齊藤孝介</t>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スイ </t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -234,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -291,6 +410,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -312,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,6 +448,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -540,10 +668,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -617,28 +745,28 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="8">
-        <v>3</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="3">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="E3" s="3">
-        <v>0.70833333333333337</v>
+        <v>0.4375</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G3" s="5">
-        <v>45383</v>
+        <v>45752</v>
       </c>
       <c r="H3" s="5">
-        <v>45442</v>
+        <v>45808</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>13</v>
@@ -651,14 +779,30 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45808</v>
+      </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
@@ -670,11 +814,30 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45808</v>
+      </c>
       <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
@@ -686,6 +849,30 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45808</v>
+      </c>
       <c r="L6" s="2" t="s">
         <v>18</v>
       </c>
@@ -697,6 +884,30 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45808</v>
+      </c>
       <c r="L7" s="2" t="s">
         <v>19</v>
       </c>
@@ -707,12 +918,112 @@
         <v>0.78819444444444442</v>
       </c>
     </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45808</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45808</v>
+      </c>
       <c r="L10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45808</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>15</v>
       </c>
@@ -721,6 +1032,474 @@
       </c>
       <c r="N11" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H17" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H18" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H19" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H21" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H22" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H23" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H24" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H25" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0.71180555555555558</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45808</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ozakiyuuta/Documents/東工大/T-qard/apps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6CAE7C-978C-F148-B2B6-6D8B8E07FCD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C854F33-8DC3-CD4E-BA34-8B0320607E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32720" yWindow="2640" windowWidth="30240" windowHeight="19640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="41">
   <si>
     <t>水</t>
   </si>
@@ -345,6 +345,16 @@
     <t>水</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">スイ </t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尾崎優太</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オザキ </t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウタ1</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -668,10 +678,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1499,6 +1509,84 @@
         <v>45752</v>
       </c>
       <c r="H29" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0.4375</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="5">
+        <v>45752</v>
+      </c>
+      <c r="H32" s="5">
         <v>45808</v>
       </c>
     </row>
